--- a/team_specific_matrix/Mid-Amer. Christian_B.xlsx
+++ b/team_specific_matrix/Mid-Amer. Christian_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C2">
-        <v>0.8333333333333334</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1666666666666667</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.4</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.5</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.3</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.125</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.125</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.125</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.125</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.125</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="S8">
-        <v>0.375</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.375</v>
+        <v>0.2</v>
       </c>
       <c r="S9">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1481481481481481</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01851851851851852</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01851851851851852</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1296296296296296</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03703703703703703</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1851851851851852</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="R10">
-        <v>0.1111111111111111</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="S10">
-        <v>0.3518518518518519</v>
+        <v>0.3737373737373738</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.125</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L11">
-        <v>0.625</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
       <c r="I15">
-        <v>0.1111111111111111</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2222222222222222</v>
+        <v>0.125</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2222222222222222</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I16">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="J16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="J16">
-        <v>0.5</v>
-      </c>
       <c r="K16">
-        <v>0.1666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.08333333333333333</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.08333333333333333</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J17">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08333333333333333</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1463,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="J18">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.05</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.15</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="I19">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J19">
-        <v>0.45</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="K19">
-        <v>0.075</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.05</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
   </sheetData>
